--- a/biology/Botanique/Notobubon/Notobubon.xlsx
+++ b/biology/Botanique/Notobubon/Notobubon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notobubon est un genre de plantes dicotylédones de la famille des Apiacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 avril 2023) :
 Notobubon capense (Thunb.) Magee
 Notobubon collinum (Eckl. &amp; Zeyh.) Magee
 Notobubon ferulaceum (Thunb. ex Sond.) Magee
@@ -555,10 +569,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Notobubon B.-E.van Wyk, 2008[2].
-Certaines sources (comme Catalogue of Life[3], GBIF[1] ou The Taxonomicon[4]) considèrent que l'auteur de ce taxon est Anthony R. Magee (d) mais c'est incorrect. De fait l'auteur du genre Notobubon est bien Ben-Erik van Wyk (d)[5].. En revanche l'espèce type de ce genre, Notobubon galbanum, est attribuée à Magee[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Notobubon B.-E.van Wyk, 2008.
+Certaines sources (comme Catalogue of Life, GBIF ou The Taxonomicon) considèrent que l'auteur de ce taxon est Anthony R. Magee (d) mais c'est incorrect. De fait l'auteur du genre Notobubon est bien Ben-Erik van Wyk (d).. En revanche l'espèce type de ce genre, Notobubon galbanum, est attribuée à Magee.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Pieter J. D. Winter, Anthony R. Magee, Nonkululo Phephu, Patricia M. Tilney, Stephen R. Downie et Ben-Erik van Wyk, « A New Generic Classification for African Peucedanoid Species (Apiaceae) », Taxon, Utrecht, IAPT (d) et Wiley, vol. 57, no 2,‎ mai 2008, p. 347–364 (ISSN 0040-0262 et 1996-8175, DOI 10.2307/25066009, JSTOR 25066009, lire en ligne)</t>
         </is>
